--- a/input_test/GRASP_input_yeast.xlsx
+++ b/input_test/GRASP_input_yeast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedgro/Code/GRASP/input_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicow/Documents/GRASP/input_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3C8C5-D363-2D46-911B-612F57A0C080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1313B30-3A5D-D149-AEC9-857758596A41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="460" windowWidth="27060" windowHeight="17580" tabRatio="993" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">mets!$A$1:$E$88</definedName>
     <definedName name="Print_Area_0" localSheetId="2">mets!$A$1:$E$88</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="354">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -1100,6 +1106,9 @@
   </si>
   <si>
     <t>Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t>Isoenzymes</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1191,11 +1200,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,6 +1251,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,6 +1643,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1736,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -26089,7 +26115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -27599,10 +27625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27610,7 +27636,7 @@
     <col min="2" max="2" width="22.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>182</v>
       </c>
@@ -27623,8 +27649,11 @@
       <c r="D1" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -27638,7 +27667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -27652,7 +27681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -27666,7 +27695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -27680,7 +27709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -27694,7 +27723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -27708,7 +27737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -27722,7 +27751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -27736,7 +27765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -27750,7 +27779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -27764,7 +27793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -27778,7 +27807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -27792,7 +27821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -27806,7 +27835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -27820,7 +27849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -30012,7 +30041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
